--- a/doc/tables/drop1_table_SCA.xlsx
+++ b/doc/tables/drop1_table_SCA.xlsx
@@ -27,33 +27,6 @@
     <t>pre-STAR_base</t>
   </si>
   <si>
-    <t>no_COM_HKL</t>
-  </si>
-  <si>
-    <t>no_COM_NET</t>
-  </si>
-  <si>
-    <t>no_REC_PC</t>
-  </si>
-  <si>
-    <t>no_REC_PC_DIS</t>
-  </si>
-  <si>
-    <t>no_REC_PR</t>
-  </si>
-  <si>
-    <t>no_NWFSC_HKL</t>
-  </si>
-  <si>
-    <t>no_NWFSC_TWL</t>
-  </si>
-  <si>
-    <t>no_REC_ONBOARD</t>
-  </si>
-  <si>
-    <t>no_GREEN_BINDER</t>
-  </si>
-  <si>
     <t>N.Parms</t>
   </si>
   <si>
@@ -223,6 +196,33 @@
   </si>
   <si>
     <t>OFLCatch_2023</t>
+  </si>
+  <si>
+    <t>COM_HKL</t>
+  </si>
+  <si>
+    <t>COM_NET</t>
+  </si>
+  <si>
+    <t>REC_PC</t>
+  </si>
+  <si>
+    <t>REC_PC_DIS</t>
+  </si>
+  <si>
+    <t>REC_PR</t>
+  </si>
+  <si>
+    <t>NWFSC_HKL</t>
+  </si>
+  <si>
+    <t>NWFSC_TWL</t>
+  </si>
+  <si>
+    <t>REC_ONBOARD</t>
+  </si>
+  <si>
+    <t>GREEN_BINDER</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1045,36 +1045,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>112</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1036.43</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>-42.869900000000001</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>349.63900000000001</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>729.22900000000004</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0.29895100000000002</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0.128248</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0.124834</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>7.7445199999999996</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>55.222099999999998</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0.16134499999999999</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>8.9137400000000006E-2</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>7.6933699999999994E-2</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>-6.0792400000000003E-2</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0.13278999999999999</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>-0.28944599999999998</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>6.6663199999999998</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0.129386</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>34.589100000000002</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>3.7721800000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>57.519300000000001</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>5.1162099999999997</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>28.041899999999998</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>3.7536100000000001</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>4.9304699999999997</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>-4.6557300000000001</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>16.879799999999999</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>3.1139700000000001</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>4.0700200000000004</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>31.312899999999999</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>3.81338</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>4.5246899999999997</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>-3.1497299999999999</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>50.422499999999999</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>5.5292899999999996</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>-8.0136500000000002</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>42.336500000000001</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>5.6813399999999996</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>46.188099999999999</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>5.0437599999999998</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>2.1040899999999998</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>4.2515699999999997E-2</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>50.659799999999997</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>5.0445200000000003</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>27.4788</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>3.5874100000000002</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>4.84389</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>-0.28057799999999999</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>29.0213</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>3.7261000000000002</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>5.8957499999999996</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>0.49535200000000001</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>1053.33</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>6579.59</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>785.50199999999995</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>140.63200000000001</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>159.97200000000001</v>
